--- a/stock_predictor_ai/data/cleaned/MARA.xlsx
+++ b/stock_predictor_ai/data/cleaned/MARA.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3305"/>
+  <dimension ref="A1:F3306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66549,6 +66549,26 @@
         <v>12857697</v>
       </c>
     </row>
+    <row r="3306">
+      <c r="A3306" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B3306" t="n">
+        <v>17.7549991607666</v>
+      </c>
+      <c r="C3306" t="n">
+        <v>18.06999969482422</v>
+      </c>
+      <c r="D3306" t="n">
+        <v>17.71999931335449</v>
+      </c>
+      <c r="E3306" t="n">
+        <v>17.97500038146973</v>
+      </c>
+      <c r="F3306" t="n">
+        <v>5776718</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/MARA.xlsx
+++ b/stock_predictor_ai/data/cleaned/MARA.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3306"/>
+  <dimension ref="A1:F3307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66569,6 +66569,26 @@
         <v>5776718</v>
       </c>
     </row>
+    <row r="3307">
+      <c r="A3307" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B3307" t="n">
+        <v>18.76000022888184</v>
+      </c>
+      <c r="C3307" t="n">
+        <v>19.36000061035156</v>
+      </c>
+      <c r="D3307" t="n">
+        <v>18.57999992370605</v>
+      </c>
+      <c r="E3307" t="n">
+        <v>19.04000091552734</v>
+      </c>
+      <c r="F3307" t="n">
+        <v>39322400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/MARA.xlsx
+++ b/stock_predictor_ai/data/cleaned/MARA.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3307"/>
+  <dimension ref="A1:F3308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66589,6 +66589,26 @@
         <v>39322400</v>
       </c>
     </row>
+    <row r="3308">
+      <c r="A3308" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B3308" t="n">
+        <v>19.62350082397461</v>
+      </c>
+      <c r="C3308" t="n">
+        <v>19.80500030517578</v>
+      </c>
+      <c r="D3308" t="n">
+        <v>19.33200073242188</v>
+      </c>
+      <c r="E3308" t="n">
+        <v>19.55999946594238</v>
+      </c>
+      <c r="F3308" t="n">
+        <v>9301284</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/MARA.xlsx
+++ b/stock_predictor_ai/data/cleaned/MARA.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3308"/>
+  <dimension ref="A1:F3309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66609,6 +66609,26 @@
         <v>9301284</v>
       </c>
     </row>
+    <row r="3309">
+      <c r="A3309" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B3309" t="n">
+        <v>15.82989978790283</v>
+      </c>
+      <c r="C3309" t="n">
+        <v>16.54999923706055</v>
+      </c>
+      <c r="D3309" t="n">
+        <v>15.38000011444092</v>
+      </c>
+      <c r="E3309" t="n">
+        <v>15.65999984741211</v>
+      </c>
+      <c r="F3309" t="n">
+        <v>42977657</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/MARA.xlsx
+++ b/stock_predictor_ai/data/cleaned/MARA.xlsx
@@ -63,7 +63,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3309"/>
+  <dimension ref="A1:F3304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66529,106 +66531,6 @@
         <v>43758700</v>
       </c>
     </row>
-    <row r="3305">
-      <c r="A3305" s="2" t="n">
-        <v>45841</v>
-      </c>
-      <c r="B3305" t="n">
-        <v>17.86000061035156</v>
-      </c>
-      <c r="C3305" t="n">
-        <v>18.21769905090332</v>
-      </c>
-      <c r="D3305" t="n">
-        <v>17.3799991607666</v>
-      </c>
-      <c r="E3305" t="n">
-        <v>17.55999946594238</v>
-      </c>
-      <c r="F3305" t="n">
-        <v>12857697</v>
-      </c>
-    </row>
-    <row r="3306">
-      <c r="A3306" s="2" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B3306" t="n">
-        <v>17.7549991607666</v>
-      </c>
-      <c r="C3306" t="n">
-        <v>18.06999969482422</v>
-      </c>
-      <c r="D3306" t="n">
-        <v>17.71999931335449</v>
-      </c>
-      <c r="E3306" t="n">
-        <v>17.97500038146973</v>
-      </c>
-      <c r="F3306" t="n">
-        <v>5776718</v>
-      </c>
-    </row>
-    <row r="3307">
-      <c r="A3307" s="2" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B3307" t="n">
-        <v>18.76000022888184</v>
-      </c>
-      <c r="C3307" t="n">
-        <v>19.36000061035156</v>
-      </c>
-      <c r="D3307" t="n">
-        <v>18.57999992370605</v>
-      </c>
-      <c r="E3307" t="n">
-        <v>19.04000091552734</v>
-      </c>
-      <c r="F3307" t="n">
-        <v>39322400</v>
-      </c>
-    </row>
-    <row r="3308">
-      <c r="A3308" s="2" t="n">
-        <v>45859</v>
-      </c>
-      <c r="B3308" t="n">
-        <v>19.62350082397461</v>
-      </c>
-      <c r="C3308" t="n">
-        <v>19.80500030517578</v>
-      </c>
-      <c r="D3308" t="n">
-        <v>19.33200073242188</v>
-      </c>
-      <c r="E3308" t="n">
-        <v>19.55999946594238</v>
-      </c>
-      <c r="F3308" t="n">
-        <v>9301284</v>
-      </c>
-    </row>
-    <row r="3309">
-      <c r="A3309" s="2" t="n">
-        <v>45902</v>
-      </c>
-      <c r="B3309" t="n">
-        <v>15.82989978790283</v>
-      </c>
-      <c r="C3309" t="n">
-        <v>16.54999923706055</v>
-      </c>
-      <c r="D3309" t="n">
-        <v>15.38000011444092</v>
-      </c>
-      <c r="E3309" t="n">
-        <v>15.65999984741211</v>
-      </c>
-      <c r="F3309" t="n">
-        <v>42977657</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
